--- a/Procurement/Saving_Data - Copy (2).xlsx
+++ b/Procurement/Saving_Data - Copy (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\Procurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF10310-A358-49BF-9524-47D3D1FA239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CA718-410D-4FDC-A882-D03A05F1380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,27 +257,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,9 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -585,7 +598,7 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +622,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -633,8 +646,16 @@
         <f>IF(E2&lt;D2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="6">
+        <f>D2/B2</f>
+        <v>3.0995951158861224E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <f>AVERAGE(H2:H37)</f>
+        <v>7.1696531380086817E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -658,8 +679,12 @@
         <f t="shared" ref="G3:G37" si="0">IF(E3&lt;D3,"Yes","No")</f>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H37" si="1">D3/B3</f>
+        <v>3.8233863878654122E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -683,8 +708,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9080385792962677E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -708,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>5.189193666395174E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -726,15 +759,19 @@
         <v>12000</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F3:F37" si="1">E6*1.05</f>
+        <f t="shared" ref="F6:F35" si="2">E6*1.05</f>
         <v>12600</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9060145276638339E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -758,8 +795,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3040846522889299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -783,8 +824,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>6.115432424679574E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -808,8 +853,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>8.7851132717222405E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -826,15 +875,19 @@
         <v>18500</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19425</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>7.2239528456029448E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -858,8 +911,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10257659126090458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -876,15 +933,19 @@
         <v>24000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="2">E12*0.95</f>
+        <f t="shared" ref="F12:F13" si="3">E12*0.95</f>
         <v>22800</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10574580678150884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -901,15 +962,19 @@
         <v>25500</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24225</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13145535734121253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -933,8 +998,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9206508951225391E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -958,8 +1027,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6901766569894309E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -983,8 +1056,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3971268020355628E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1008,8 +1085,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1655689236263574E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1026,15 +1107,19 @@
         <v>12500</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ref="F17:F18" si="3">E18*0.99</f>
+        <f t="shared" ref="F18" si="4">E18*0.99</f>
         <v>12375</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8676730966359147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1058,8 +1143,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6700859590375347E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1073,18 +1162,22 @@
         <v>15293</v>
       </c>
       <c r="E20" s="5">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="5">
         <f>E20*0.95</f>
-        <v>1425</v>
+        <v>14250</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4542547694947309E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1108,8 +1201,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>8.4445377248899348E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1126,15 +1223,19 @@
         <v>20000</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F23" si="4">E22*0.95</f>
+        <f t="shared" ref="F22" si="5">E22*0.95</f>
         <v>19000</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2526765809487992E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1158,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10437097762794974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1183,8 +1288,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11285320468642315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1208,8 +1317,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8222950563259623E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1233,8 +1346,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8803511064397923E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1258,8 +1375,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4325887224991906E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1276,15 +1397,19 @@
         <v>12000</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12600</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>7.2195092693020907E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1308,8 +1433,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9305477659375584E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1333,8 +1462,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5787444710465451E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1358,8 +1491,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8744200783035739E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1383,8 +1520,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1269402263577382E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1408,8 +1549,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="6">
+        <f t="shared" si="1"/>
+        <v>7.3102810223198797E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1426,15 +1571,19 @@
         <v>20500</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21525</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10683978485578707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1451,15 +1600,19 @@
         <v>23500</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24675</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
+        <v>0.108790632645928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1483,8 +1636,12 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8540033216175507E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1507,6 +1664,10 @@
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11597033528010048</v>
       </c>
     </row>
   </sheetData>
